--- a/Lab6BOM.xlsx
+++ b/Lab6BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\EE345L Class\EE445LTeachingMaterials\0000_Fall_2024\0000_LAB_Documents_Fall24_GIT_UPLOADS\ECE445L-Lab6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niran\Desktop\ECE445L\LabStarterFilesv3\lab-6-niranjannt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF93FA-897B-4C69-9CDA-FC38A2F0EF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61266924-A6AE-4CB4-BCD1-63C96566F8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="90" windowWidth="28800" windowHeight="15225" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1044" yWindow="3720" windowWidth="17280" windowHeight="9960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -722,24 +722,24 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="23" style="3" customWidth="1"/>
-    <col min="12" max="256" width="11.42578125" style="3" customWidth="1"/>
-    <col min="257" max="1024" width="9.140625" style="3"/>
+    <col min="12" max="256" width="11.44140625" style="3" customWidth="1"/>
+    <col min="257" max="1024" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -777,7 +777,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -786,7 +786,7 @@
       </c>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -821,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -848,145 +848,145 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L7" s="11"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F9" s="12"/>
     </row>
-    <row r="42" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:18" x14ac:dyDescent="0.3">
       <c r="K42" s="1"/>
     </row>
-    <row r="45" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:18" x14ac:dyDescent="0.3">
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H46" s="12"/>
       <c r="R46" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="H76" s="3"/>
@@ -994,152 +994,152 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="H106" s="3"/>
@@ -1168,128 +1168,128 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="1"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
